--- a/biology/Botanique/Alangium/Alangium.xlsx
+++ b/biology/Botanique/Alangium/Alangium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alangium est un genre d'arbres de la famille des Cornacées en classification phylogénétique APG IV (2016)[2] et APG III, ou de la famille des Alangiaceae en classification classique. Dans les deux cas, ils font partie de l'ordre des Cornales. Les espèces du genre Alangium sont réparties en Afrique, Asie du Sud-Est et Océanie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alangium est un genre d'arbres de la famille des Cornacées en classification phylogénétique APG IV (2016) et APG III, ou de la famille des Alangiaceae en classification classique. Dans les deux cas, ils font partie de l'ordre des Cornales. Les espèces du genre Alangium sont réparties en Afrique, Asie du Sud-Est et Océanie.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (14 avril 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (14 avril 2019) :
 Alangium alpinum (C.B.Clarke) W.W.Sm. &amp; Cave (1914)
 Alangium amplum W.J.de Wilde &amp; Duyfjes, Thai Forest Bull. (2016)
 Alangium barbatum (R.Br. ex C.B.Clarke) Baill. ex Kuntze (1891)
@@ -574,7 +588,7 @@
 Alangium warburgianum Wangerin (1910)
 Alangium yunnanense C.Y.Wu ex W.P.Fang, J. Sichuan Univ. (1979)
 Espèces et synonymes selon Tropicos
-Selon Tropicos                                           (14 avril 2019)[4] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (14 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Alangium alpinum (C.B. Clarke) W.W. Sm. &amp; Cave
 Alangium arboreum Teijsm. &amp; Binn. ex Koord. &amp; Valeton
 Alangium barbatum (R. Br.) Baill.
